--- a/zaj2/Odpowiedzi.xlsx
+++ b/zaj2/Odpowiedzi.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,8 +438,8 @@
         <v>0.74430999999999992</v>
       </c>
       <c r="C7">
-        <f>_xlfn.BINOM.DIST(5,7,0.7,TRUE) - _xlfn.BINOM.DIST(4,7,0.7,TRUE)</f>
-        <v>0.3176523</v>
+        <f>_xlfn.BINOM.DIST(5,7,0.7,FALSE)</f>
+        <v>0.31765230000000005</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>8.1975359245961311E-3</v>
       </c>
       <c r="B11">
-        <f>_xlfn.NORM.DIST(36,36,5,TRUE)</f>
+        <f>1-_xlfn.NORM.DIST(36,36,5,TRUE)</f>
         <v>0.5</v>
       </c>
     </row>
